--- a/DataandQueries/MenuandSubmenuAdminData.xlsx
+++ b/DataandQueries/MenuandSubmenuAdminData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="88">
   <si>
     <t>SubMenuID</t>
   </si>
@@ -115,6 +115,171 @@
   </si>
   <si>
     <t>MenuMapping</t>
+  </si>
+  <si>
+    <t>UserUniqueID</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>RoleID</t>
+  </si>
+  <si>
+    <t>LoginName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>IsTwoFactor</t>
+  </si>
+  <si>
+    <t>IsOwner</t>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+  </si>
+  <si>
+    <t>IsManager</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>CreatedUserID</t>
+  </si>
+  <si>
+    <t>Otp</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>UserField1</t>
+  </si>
+  <si>
+    <t>UserField2</t>
+  </si>
+  <si>
+    <t>UserField3</t>
+  </si>
+  <si>
+    <t>Viswa</t>
+  </si>
+  <si>
+    <t>viswadhinesh@gmail.com</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>YWE=</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>viswadhinesh2@gmail.com</t>
+  </si>
+  <si>
+    <t>YmI=</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>SourceID</t>
+  </si>
+  <si>
+    <t>SourceName</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Education Loan</t>
+  </si>
+  <si>
+    <t>Personal Loan</t>
+  </si>
+  <si>
+    <t>Gold Loan</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Test_New</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -462,22 +627,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1131,11 +1295,781 @@
         <v>11</v>
       </c>
     </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" t="s">
+        <v>47</v>
+      </c>
+      <c r="P35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" t="s">
+        <v>50</v>
+      </c>
+      <c r="S35" t="s">
+        <v>51</v>
+      </c>
+      <c r="T35" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" t="s">
+        <v>53</v>
+      </c>
+      <c r="V35" t="s">
+        <v>54</v>
+      </c>
+      <c r="W35" t="s">
+        <v>55</v>
+      </c>
+      <c r="X35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>8012716442</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="1">
+        <v>34768</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" t="s">
+        <v>31</v>
+      </c>
+      <c r="X36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>44033.86207048611</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>3764</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37">
+        <v>8012716443</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="1">
+        <v>36595</v>
+      </c>
+      <c r="L37" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37">
+        <v>123</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>44033.546194641203</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>44033.902595173611</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DataandQueries/MenuandSubmenuAdminData.xlsx
+++ b/DataandQueries/MenuandSubmenuAdminData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="106">
   <si>
     <t>SubMenuID</t>
   </si>
@@ -280,6 +280,60 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>/User/Index</t>
+  </si>
+  <si>
+    <t>/Role/Index</t>
+  </si>
+  <si>
+    <t>/Menu/Index</t>
+  </si>
+  <si>
+    <t>/SubMenu/Index</t>
+  </si>
+  <si>
+    <t>/Category/Index</t>
+  </si>
+  <si>
+    <t>/Value/Index</t>
+  </si>
+  <si>
+    <t>/Home/Index</t>
+  </si>
+  <si>
+    <t>/Sources/Index</t>
+  </si>
+  <si>
+    <t>/Sources/Source</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>/Clients</t>
+  </si>
+  <si>
+    <t>Bank Master</t>
+  </si>
+  <si>
+    <t>/Bank/Index</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>/CommonUser/PasswordChange</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>CommonUser/Profiles</t>
+  </si>
+  <si>
+    <t>IsMainMenu</t>
   </si>
 </sst>
 </file>
@@ -627,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2063,8 +2117,512 @@
         <v>31</v>
       </c>
     </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78">
+        <v>16</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A64:I64"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A1:J1"/>
